--- a/private/lotkamoney_Banks_excel.xlsx
+++ b/private/lotkamoney_Banks_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drive\Git\moneymanagerpublicrepository\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80073097-2E27-4405-8BB9-36DC3DF0BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BEA360-5F9C-4F94-B2CA-06B6530C3D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C818D4B0-3AFE-4AB2-8132-5DF7E430B79B}"/>
   </bookViews>
@@ -50,47 +50,47 @@
     <t>بانک ملت</t>
   </si>
   <si>
-    <t>bank-en</t>
-  </si>
-  <si>
-    <t>bank-local</t>
-  </si>
-  <si>
-    <t>bankid</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
     <t>confirmed</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>countrycode</t>
   </si>
   <si>
-    <t>ic-small</t>
-  </si>
-  <si>
-    <t>ic-big</t>
-  </si>
-  <si>
-    <t>ic-nor</t>
-  </si>
-  <si>
     <t>https://mobinjafari.github.io/moneymanagerpublicrepository/public/images/Mellatlogo.png</t>
   </si>
   <si>
     <t>https://mobinjafari.github.io/moneymanagerpublicrepository/public/images/Mellilogo.png</t>
+  </si>
+  <si>
+    <t>bankEn</t>
+  </si>
+  <si>
+    <t>bankLocal</t>
+  </si>
+  <si>
+    <t>bankId</t>
+  </si>
+  <si>
+    <t>countryStr</t>
+  </si>
+  <si>
+    <t>icSmall</t>
+  </si>
+  <si>
+    <t>icNor</t>
+  </si>
+  <si>
+    <t>icBig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -123,14 +135,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29931929-4D0C-42ED-AFD1-8A9B890456E9}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,110 +547,246 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>98</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>98</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>98</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>10001</v>
-      </c>
-      <c r="D3">
-        <v>101</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>98</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J3:S3"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{A1F7F198-093C-4F65-9A89-CCC5D909361F}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{15F9692A-7BD9-45FE-A9DB-F384FC312AF9}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{F7D5A1CF-452A-4AFB-AC38-A7F6E948A957}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{5618C925-B1C5-44A9-8968-458C7233E2EE}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{EB5FDA97-1CF6-4624-B7BB-862E9B2275C6}"/>
-    <hyperlink ref="I2" r:id="rId6" xr:uid="{29BF30F6-FCBE-45FC-8489-2C72C1C4170A}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{941E3329-8AD3-4594-B35F-1AFB663E43CA}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{289F3A0C-3F37-441D-8C30-0F333DFC7A5F}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{214018E1-5BF6-4C93-82DD-591AB3258D9C}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{552B96C1-0FF4-45BA-9040-32E975CE3B4F}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{DB3D41F8-8226-4343-8AE5-E2D435A8DBF3}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{E56333DF-3359-4D5B-81AC-ED0134C9E93C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
